--- a/StructureDefinition-covid19-oxygen-therapy.xlsx
+++ b/StructureDefinition-covid19-oxygen-therapy.xlsx
@@ -39,13 +39,13 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Covid19OxygenTherapy</t>
+    <t>COVID19OxygenTherapy</t>
   </si>
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>Covid19 Oxygen Therapy</t>
+    <t>COVID-19 Oxygen Therapy</t>
   </si>
   <si>
     <t>Status</t>
